--- a/api/uploads/template.xlsx
+++ b/api/uploads/template.xlsx
@@ -2545,141 +2545,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.1562" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.8672" style="39" customWidth="1"/>
-    <col min="4" max="4" width="11.2891" style="39" customWidth="1"/>
-    <col min="5" max="5" width="16" style="39" customWidth="1"/>
-    <col min="6" max="6" width="14.2891" style="39" customWidth="1"/>
-    <col min="7" max="7" width="8.86719" style="39" customWidth="1"/>
-    <col min="8" max="8" width="10.8672" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.1562" style="39" customWidth="1"/>
-    <col min="10" max="10" width="8.15625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.4453" style="39" customWidth="1"/>
-    <col min="12" max="12" width="8.73438" style="39" customWidth="1"/>
-    <col min="13" max="13" width="10.1562" style="39" customWidth="1"/>
-    <col min="14" max="14" width="10.8672" style="39" customWidth="1"/>
-    <col min="15" max="15" width="14" style="39" customWidth="1"/>
-    <col min="16" max="16" width="11.2891" style="39" customWidth="1"/>
-    <col min="17" max="17" width="11.5781" style="39" customWidth="1"/>
-    <col min="18" max="256" width="8.73438" style="39" customWidth="1"/>
+    <col min="2" max="2" width="13" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1562" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.8672" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.2891" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.2891" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.86719" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.8672" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.1562" style="39" customWidth="1"/>
+    <col min="11" max="11" width="8.15625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="11.4453" style="39" customWidth="1"/>
+    <col min="13" max="13" width="8.73438" style="39" customWidth="1"/>
+    <col min="14" max="14" width="10.1562" style="39" customWidth="1"/>
+    <col min="15" max="15" width="10.8672" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14" style="39" customWidth="1"/>
+    <col min="17" max="17" width="11.2891" style="39" customWidth="1"/>
+    <col min="18" max="18" width="11.5781" style="39" customWidth="1"/>
+    <col min="19" max="256" width="8.73438" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.4" customHeight="1">
       <c r="A1" t="s" s="20">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="20">
         <v>47</v>
       </c>
-      <c r="B1" t="s" s="20">
+      <c r="C1" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="D1" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="E1" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="E1" t="s" s="22">
+      <c r="F1" t="s" s="22">
         <v>51</v>
       </c>
-      <c r="F1" t="s" s="22">
+      <c r="G1" t="s" s="22">
         <v>52</v>
       </c>
-      <c r="G1" t="s" s="22">
+      <c r="H1" t="s" s="22">
         <v>53</v>
       </c>
-      <c r="H1" t="s" s="22">
+      <c r="I1" t="s" s="22">
         <v>54</v>
       </c>
-      <c r="I1" t="s" s="22">
+      <c r="J1" t="s" s="22">
         <v>55</v>
       </c>
-      <c r="J1" t="s" s="22">
+      <c r="K1" t="s" s="22">
         <v>56</v>
       </c>
-      <c r="K1" t="s" s="22">
+      <c r="L1" t="s" s="22">
         <v>57</v>
       </c>
-      <c r="L1" t="s" s="22">
+      <c r="M1" t="s" s="22">
         <v>33</v>
       </c>
-      <c r="M1" t="s" s="22">
+      <c r="N1" t="s" s="22">
         <v>58</v>
       </c>
-      <c r="N1" t="s" s="22">
+      <c r="O1" t="s" s="22">
         <v>32</v>
       </c>
-      <c r="O1" t="s" s="22">
+      <c r="P1" t="s" s="22">
         <v>59</v>
       </c>
-      <c r="P1" t="s" s="22">
+      <c r="Q1" t="s" s="22">
         <v>60</v>
       </c>
-      <c r="Q1" t="s" s="40">
+      <c r="R1" t="s" s="40">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="43.2" customHeight="1">
       <c r="A2" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="23">
         <v>62</v>
       </c>
-      <c r="B2" t="s" s="23">
+      <c r="C2" t="s" s="23">
         <v>63</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="D2" t="s" s="23">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="24">
+      <c r="E2" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="E2" t="s" s="25">
+      <c r="F2" t="s" s="25">
         <v>65</v>
       </c>
-      <c r="F2" t="s" s="25">
+      <c r="G2" t="s" s="25">
         <v>66</v>
       </c>
-      <c r="G2" t="s" s="25">
+      <c r="H2" t="s" s="25">
         <v>53</v>
       </c>
-      <c r="H2" t="s" s="25">
+      <c r="I2" t="s" s="25">
         <v>67</v>
       </c>
-      <c r="I2" t="s" s="25">
+      <c r="J2" t="s" s="25">
         <v>68</v>
       </c>
-      <c r="J2" t="s" s="25">
+      <c r="K2" t="s" s="25">
         <v>69</v>
       </c>
-      <c r="K2" t="s" s="25">
+      <c r="L2" t="s" s="25">
         <v>70</v>
       </c>
-      <c r="L2" t="s" s="25">
+      <c r="M2" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="M2" t="s" s="25">
+      <c r="N2" t="s" s="25">
         <v>58</v>
       </c>
-      <c r="N2" t="s" s="25">
+      <c r="O2" t="s" s="25">
         <v>71</v>
       </c>
-      <c r="O2" t="s" s="25">
+      <c r="P2" t="s" s="25">
         <v>72</v>
       </c>
-      <c r="P2" t="s" s="25">
+      <c r="Q2" t="s" s="25">
         <v>73</v>
       </c>
-      <c r="Q2" t="s" s="41">
+      <c r="R2" t="s" s="41">
         <v>74</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -2694,11 +2701,12 @@
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -2713,7 +2721,8 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="34"/>
@@ -2733,6 +2742,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="18"/>
@@ -2752,6 +2762,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="18"/>
@@ -2771,6 +2782,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="18"/>
@@ -2790,6 +2802,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="18"/>
@@ -2809,6 +2822,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="18"/>
@@ -2828,6 +2842,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
